--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8D9A98-F29D-4377-BD36-F6921552EB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86862ACB-51DC-4323-9388-188472C23E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="1073" windowWidth="21600" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="weo_pg" sheetId="5" r:id="rId1"/>
-    <sheet name="Misc" sheetId="4" r:id="rId2"/>
+    <sheet name="AVA" sheetId="6" r:id="rId1"/>
+    <sheet name="weo_pg" sheetId="5" r:id="rId2"/>
+    <sheet name="Misc" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="64">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -220,16 +221,32 @@
   </si>
   <si>
     <t>E[_]SPV*</t>
+  </si>
+  <si>
+    <t>~TFM_AVA</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>allregions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -255,9 +272,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,6 +555,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268E9BAB-B98F-4B82-9042-51EABC9ED525}">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3954DD3-0F24-46DF-B268-7A98442D0282}">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -1177,12 +1231,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1323,16 +1377,16 @@
       </c>
     </row>
     <row r="12" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="P12" t="s">
+      <c r="P12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="T12" t="s">
@@ -1343,19 +1397,16 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q13">
-        <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P13,weo_pg!$D$2:$D$18,Misc!$W13)</f>
+      <c r="Q13" s="2">
         <v>2700</v>
       </c>
-      <c r="R13">
-        <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P13,weo_pg!$D$2:$D$18,Misc!$W13)</f>
+      <c r="R13" s="2">
         <v>2700</v>
       </c>
-      <c r="S13">
-        <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P13,weo_pg!$D$2:$D$18,Misc!$W13)</f>
+      <c r="S13" s="2">
         <v>2700</v>
       </c>
       <c r="T13" t="str">
@@ -1385,19 +1436,16 @@
       <c r="G14" t="s">
         <v>5</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q14">
-        <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P14,weo_pg!$D$2:$D$18,Misc!$W14)</f>
+      <c r="Q14" s="2">
         <v>1110</v>
       </c>
-      <c r="R14">
-        <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P14,weo_pg!$D$2:$D$18,Misc!$W14)</f>
+      <c r="R14" s="2">
         <v>690</v>
       </c>
-      <c r="S14">
-        <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P14,weo_pg!$D$2:$D$18,Misc!$W14)</f>
+      <c r="S14" s="2">
         <v>480</v>
       </c>
       <c r="T14" t="str">
@@ -1427,19 +1475,16 @@
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q15">
-        <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P15,weo_pg!$D$2:$D$18,Misc!$W15)</f>
+      <c r="Q15" s="2">
         <v>4060</v>
       </c>
-      <c r="R15">
-        <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P15,weo_pg!$D$2:$D$18,Misc!$W15)</f>
+      <c r="R15" s="2">
         <v>2760</v>
       </c>
-      <c r="S15">
-        <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P15,weo_pg!$D$2:$D$18,Misc!$W15)</f>
+      <c r="S15" s="2">
         <v>1980</v>
       </c>
       <c r="T15" t="str">
@@ -1463,19 +1508,16 @@
       <c r="G16" s="1">
         <v>8.76</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q16">
-        <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P16,weo_pg!$D$2:$D$18,Misc!$W16)</f>
+      <c r="Q16" s="2">
         <v>1500</v>
       </c>
-      <c r="R16">
-        <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P16,weo_pg!$D$2:$D$18,Misc!$W16)</f>
+      <c r="R16" s="2">
         <v>1430</v>
       </c>
-      <c r="S16">
-        <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P16,weo_pg!$D$2:$D$18,Misc!$W16)</f>
+      <c r="S16" s="2">
         <v>1370</v>
       </c>
       <c r="T16" t="str">
@@ -1499,19 +1541,16 @@
       <c r="G17">
         <v>4</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q17">
-        <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P17,weo_pg!$D$2:$D$18,Misc!$W17)</f>
+      <c r="Q17" s="2">
         <v>70</v>
       </c>
-      <c r="R17">
-        <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P17,weo_pg!$D$2:$D$18,Misc!$W17)</f>
+      <c r="R17" s="2">
         <v>65</v>
       </c>
-      <c r="S17">
-        <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P17,weo_pg!$D$2:$D$18,Misc!$W17)</f>
+      <c r="S17" s="2">
         <v>65</v>
       </c>
       <c r="T17" t="str">
@@ -1537,19 +1576,16 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q18">
-        <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P18,weo_pg!$D$2:$D$18,Misc!$W18)</f>
+      <c r="Q18" s="2">
         <v>16</v>
       </c>
-      <c r="R18">
-        <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P18,weo_pg!$D$2:$D$18,Misc!$W18)</f>
+      <c r="R18" s="2">
         <v>16</v>
       </c>
-      <c r="S18">
-        <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P18,weo_pg!$D$2:$D$18,Misc!$W18)</f>
+      <c r="S18" s="2">
         <v>16</v>
       </c>
       <c r="T18" t="str">
@@ -1575,19 +1611,16 @@
       <c r="G19">
         <v>30</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q19">
-        <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P19,weo_pg!$D$2:$D$18,Misc!$W19)</f>
+      <c r="Q19" s="2">
         <v>120</v>
       </c>
-      <c r="R19">
-        <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P19,weo_pg!$D$2:$D$18,Misc!$W19)</f>
+      <c r="R19" s="2">
         <v>95</v>
       </c>
-      <c r="S19">
-        <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P19,weo_pg!$D$2:$D$18,Misc!$W19)</f>
+      <c r="S19" s="2">
         <v>70</v>
       </c>
       <c r="T19" t="str">
@@ -1613,19 +1646,16 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q20">
-        <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P20,weo_pg!$D$2:$D$18,Misc!$W20)</f>
+      <c r="Q20" s="2">
         <v>38</v>
       </c>
-      <c r="R20">
-        <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P20,weo_pg!$D$2:$D$18,Misc!$W20)</f>
+      <c r="R20" s="2">
         <v>36</v>
       </c>
-      <c r="S20">
-        <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P20,weo_pg!$D$2:$D$18,Misc!$W20)</f>
+      <c r="S20" s="2">
         <v>36</v>
       </c>
       <c r="T20" t="str">
@@ -1651,19 +1681,16 @@
       <c r="G21">
         <v>0.25</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q21">
-        <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P21,weo_pg!$D$2:$D$18,Misc!$W21)</f>
+      <c r="Q21" s="2">
         <v>4</v>
       </c>
-      <c r="R21">
-        <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P21,weo_pg!$D$2:$D$18,Misc!$W21)</f>
+      <c r="R21" s="2">
         <v>4</v>
       </c>
-      <c r="S21">
-        <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P21,weo_pg!$D$2:$D$18,Misc!$W21)</f>
+      <c r="S21" s="2">
         <v>4</v>
       </c>
       <c r="T21" t="str">
@@ -1689,19 +1716,16 @@
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q22">
-        <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P22,weo_pg!$D$2:$D$18,Misc!$W22)</f>
+      <c r="Q22" s="2">
         <v>1.5</v>
       </c>
-      <c r="R22">
-        <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P22,weo_pg!$D$2:$D$18,Misc!$W22)</f>
+      <c r="R22" s="2">
         <v>1.5</v>
       </c>
-      <c r="S22">
-        <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P22,weo_pg!$D$2:$D$18,Misc!$W22)</f>
+      <c r="S22" s="2">
         <v>1.5</v>
       </c>
       <c r="T22" t="str">
@@ -1718,19 +1742,16 @@
       </c>
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="P23" t="s">
+      <c r="P23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q23">
-        <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P23,weo_pg!$D$2:$D$18,Misc!$W23)</f>
+      <c r="Q23" s="2">
         <v>3</v>
       </c>
-      <c r="R23">
-        <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P23,weo_pg!$D$2:$D$18,Misc!$W23)</f>
+      <c r="R23" s="2">
         <v>3</v>
       </c>
-      <c r="S23">
-        <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P23,weo_pg!$D$2:$D$18,Misc!$W23)</f>
+      <c r="S23" s="2">
         <v>3</v>
       </c>
       <c r="T23" t="str">
@@ -1747,19 +1768,16 @@
       </c>
     </row>
     <row r="24" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="P24" t="s">
+      <c r="P24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q24">
-        <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P24,weo_pg!$D$2:$D$18,Misc!$W24)</f>
+      <c r="Q24" s="2">
         <v>1.5</v>
       </c>
-      <c r="R24">
-        <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P24,weo_pg!$D$2:$D$18,Misc!$W24)</f>
+      <c r="R24" s="2">
         <v>1.5</v>
       </c>
-      <c r="S24">
-        <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P24,weo_pg!$D$2:$D$18,Misc!$W24)</f>
+      <c r="S24" s="2">
         <v>1.5</v>
       </c>
       <c r="T24" t="str">
@@ -1917,6 +1935,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\SubRES_Tmpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86862ACB-51DC-4323-9388-188472C23E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1AD165-D336-4688-8CB7-9B2DF80ECBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="110">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -230,13 +230,151 @@
   </si>
   <si>
     <t>allregions</t>
+  </si>
+  <si>
+    <t>~replicateinregions</t>
+  </si>
+  <si>
+    <t>incode</t>
+  </si>
+  <si>
+    <t>indesc</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>w98648381-220</t>
+  </si>
+  <si>
+    <t>Bioenergy + CCUS,Bioenergy - Large scale unit,CCGT,CCGT + CCS,Coal + CCS,Fuel cell (distributed electricity generation),Gas turbine,IGCC,IGCC + CCS,Nuclear large,Oxyfuel + CCS,Steam Coal - SUBCRITICAL,Steam Coal - SUPERCRITICAL,Steam Coal - ULTRASUPERCRITICAL</t>
+  </si>
+  <si>
+    <t>w356292116-220</t>
+  </si>
+  <si>
+    <t>w35840165-380</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>w140873735-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CHE-1,EN_Hydro_CHE-2,EN_Hydro_CHE-3</t>
+  </si>
+  <si>
+    <t>w1208713169-220</t>
+  </si>
+  <si>
+    <t>w1092884227-220</t>
+  </si>
+  <si>
+    <t>w281803398-220</t>
+  </si>
+  <si>
+    <t>w234983117-220</t>
+  </si>
+  <si>
+    <t>CH46-220</t>
+  </si>
+  <si>
+    <t>w1327084723-220</t>
+  </si>
+  <si>
+    <t>CH13-220</t>
+  </si>
+  <si>
+    <t>w212498548-220</t>
+  </si>
+  <si>
+    <t>w758943072-220</t>
+  </si>
+  <si>
+    <t>CH56-220</t>
+  </si>
+  <si>
+    <t>w130198336-220</t>
+  </si>
+  <si>
+    <t>w1086214433-220</t>
+  </si>
+  <si>
+    <t>CH27-220</t>
+  </si>
+  <si>
+    <t>w240959264-220</t>
+  </si>
+  <si>
+    <t>w936521586-380</t>
+  </si>
+  <si>
+    <t>w260211728-380</t>
+  </si>
+  <si>
+    <t>CH18-220</t>
+  </si>
+  <si>
+    <t>CH47-220</t>
+  </si>
+  <si>
+    <t>CH17-380</t>
+  </si>
+  <si>
+    <t>CH22-220</t>
+  </si>
+  <si>
+    <t>w238138373-380</t>
+  </si>
+  <si>
+    <t>CH32-220</t>
+  </si>
+  <si>
+    <t>r7933294-380</t>
+  </si>
+  <si>
+    <t>w802058337-220</t>
+  </si>
+  <si>
+    <t>w431234146-220</t>
+  </si>
+  <si>
+    <t>w36348118-220</t>
+  </si>
+  <si>
+    <t>w100662075-220</t>
+  </si>
+  <si>
+    <t>w207993342-220</t>
+  </si>
+  <si>
+    <t>w236819191-220</t>
+  </si>
+  <si>
+    <t>w210568055-380</t>
+  </si>
+  <si>
+    <t>CH59-220</t>
+  </si>
+  <si>
+    <t>w177392130-400</t>
+  </si>
+  <si>
+    <t>CH60-225</t>
+  </si>
+  <si>
+    <t>w55698557-225</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL,EN_STG4hbNREL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,16 +389,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -268,14 +451,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,6 +511,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D964820C-2F05-454F-6F80-744F46E54657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,20 +831,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268E9BAB-B98F-4B82-9042-51EABC9ED525}">
-  <dimension ref="B3:C5"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="9" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.59765625" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" customWidth="1"/>
+    <col min="13" max="14" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -577,7 +875,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>62</v>
       </c>
@@ -585,8 +883,1049 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="G14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="G15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="G16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G41" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="L46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="L47" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="L48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1AD165-D336-4688-8CB7-9B2DF80ECBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF89316-C00C-492E-AFFB-D858A2EE3506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
     <t>w98648381-220</t>
   </si>
   <si>
-    <t>Bioenergy + CCUS,Bioenergy - Large scale unit,CCGT,CCGT + CCS,Coal + CCS,Fuel cell (distributed electricity generation),Gas turbine,IGCC,IGCC + CCS,Nuclear large,Oxyfuel + CCS,Steam Coal - SUBCRITICAL,Steam Coal - SUPERCRITICAL,Steam Coal - ULTRASUPERCRITICAL</t>
+    <t>Bioenergy + CCUS,Bioenergy - Large scale unit,CCGT,CCGT + CCS,Coal + CCS,Gas turbine,IGCC,IGCC + CCS,Nuclear large,Oxyfuel + CCS,Steam Coal - SUBCRITICAL,Steam Coal - SUPERCRITICAL,Steam Coal - ULTRASUPERCRITICAL</t>
   </si>
   <si>
     <t>w356292116-220</t>
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D964820C-2F05-454F-6F80-744F46E54657}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDCE29B-640C-C06A-E5CB-EB0B954EC707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF89316-C00C-492E-AFFB-D858A2EE3506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B8C6F16-8F92-41E9-AB6F-4C427810D9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="111">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>EN_STG8hbNREL,EN_STG4hbNREL</t>
+  </si>
+  <si>
+    <t>ElcAgg*</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDCE29B-640C-C06A-E5CB-EB0B954EC707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52C7381-FBB0-1650-B7E1-D49DD18EB1E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -883,6 +886,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
     <row r="9" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="4" t="s">
         <v>64</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B8C6F16-8F92-41E9-AB6F-4C427810D9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B2F6274-B851-4B77-97E0-30C591B65960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="110">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -368,9 +368,6 @@
   </si>
   <si>
     <t>EN_STG8hbNREL,EN_STG4hbNREL</t>
-  </si>
-  <si>
-    <t>ElcAgg*</t>
   </si>
 </sst>
 </file>
@@ -536,7 +533,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52C7381-FBB0-1650-B7E1-D49DD18EB1E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C934FEA6-DE5B-F84B-B330-C8C22335648B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -886,14 +883,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="4" t="s">
         <v>64</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B2F6274-B851-4B77-97E0-30C591B65960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A75E2E3-A60B-4A41-84A6-3269CA97BE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C934FEA6-DE5B-F84B-B330-C8C22335648B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F46371-23D3-799D-0B25-FEDCD49613B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A75E2E3-A60B-4A41-84A6-3269CA97BE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{605B3658-F059-4C54-8834-2283282601CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVA" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="204">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -112,12 +112,6 @@
     <t>io</t>
   </si>
   <si>
-    <t>ELC_Sol*</t>
-  </si>
-  <si>
-    <t>ELC_Win*</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
@@ -232,6 +226,21 @@
     <t>allregions</t>
   </si>
   <si>
+    <t>ELC_spv*</t>
+  </si>
+  <si>
+    <t>ELC_won*</t>
+  </si>
+  <si>
+    <t>Trd_elec*</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
     <t>~replicateinregions</t>
   </si>
   <si>
@@ -247,127 +256,400 @@
     <t>w98648381-220</t>
   </si>
   <si>
+    <t>at grid node - w98648381-220</t>
+  </si>
+  <si>
     <t>Bioenergy + CCUS,Bioenergy - Large scale unit,CCGT,CCGT + CCS,Coal + CCS,Gas turbine,IGCC,IGCC + CCS,Nuclear large,Oxyfuel + CCS,Steam Coal - SUBCRITICAL,Steam Coal - SUPERCRITICAL,Steam Coal - ULTRASUPERCRITICAL</t>
   </si>
   <si>
     <t>w356292116-220</t>
   </si>
   <si>
+    <t>at grid node - w356292116-220</t>
+  </si>
+  <si>
     <t>w35840165-380</t>
   </si>
   <si>
+    <t>at grid node - w35840165-380</t>
+  </si>
+  <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
   <si>
     <t>w140873735-220</t>
   </si>
   <si>
+    <t>at grid node - w140873735-220</t>
+  </si>
+  <si>
     <t>EN_Hydro_CHE-1,EN_Hydro_CHE-2,EN_Hydro_CHE-3</t>
   </si>
   <si>
     <t>w1208713169-220</t>
   </si>
   <si>
+    <t>at grid node - w1208713169-220</t>
+  </si>
+  <si>
     <t>w1092884227-220</t>
   </si>
   <si>
+    <t>at grid node - w1092884227-220</t>
+  </si>
+  <si>
     <t>w281803398-220</t>
   </si>
   <si>
+    <t>at grid node - w281803398-220</t>
+  </si>
+  <si>
     <t>w234983117-220</t>
   </si>
   <si>
+    <t>at grid node - w234983117-220</t>
+  </si>
+  <si>
     <t>CH46-220</t>
   </si>
   <si>
+    <t>at grid node - CH46-220</t>
+  </si>
+  <si>
     <t>w1327084723-220</t>
   </si>
   <si>
+    <t>at grid node - w1327084723-220</t>
+  </si>
+  <si>
     <t>CH13-220</t>
   </si>
   <si>
+    <t>at grid node - CH13-220</t>
+  </si>
+  <si>
     <t>w212498548-220</t>
   </si>
   <si>
+    <t>at grid node - w212498548-220</t>
+  </si>
+  <si>
     <t>w758943072-220</t>
   </si>
   <si>
+    <t>at grid node - w758943072-220</t>
+  </si>
+  <si>
     <t>CH56-220</t>
   </si>
   <si>
+    <t>at grid node - CH56-220</t>
+  </si>
+  <si>
     <t>w130198336-220</t>
   </si>
   <si>
+    <t>at grid node - w130198336-220</t>
+  </si>
+  <si>
     <t>w1086214433-220</t>
   </si>
   <si>
+    <t>at grid node - w1086214433-220</t>
+  </si>
+  <si>
     <t>CH27-220</t>
   </si>
   <si>
+    <t>at grid node - CH27-220</t>
+  </si>
+  <si>
     <t>w240959264-220</t>
   </si>
   <si>
+    <t>at grid node - w240959264-220</t>
+  </si>
+  <si>
     <t>w936521586-380</t>
   </si>
   <si>
+    <t>at grid node - w936521586-380</t>
+  </si>
+  <si>
     <t>w260211728-380</t>
   </si>
   <si>
+    <t>at grid node - w260211728-380</t>
+  </si>
+  <si>
     <t>CH18-220</t>
   </si>
   <si>
+    <t>at grid node - CH18-220</t>
+  </si>
+  <si>
     <t>CH47-220</t>
   </si>
   <si>
+    <t>at grid node - CH47-220</t>
+  </si>
+  <si>
     <t>CH17-380</t>
   </si>
   <si>
+    <t>at grid node - CH17-380</t>
+  </si>
+  <si>
     <t>CH22-220</t>
   </si>
   <si>
+    <t>at grid node - CH22-220</t>
+  </si>
+  <si>
     <t>w238138373-380</t>
   </si>
   <si>
+    <t>at grid node - w238138373-380</t>
+  </si>
+  <si>
     <t>CH32-220</t>
   </si>
   <si>
+    <t>at grid node - CH32-220</t>
+  </si>
+  <si>
     <t>r7933294-380</t>
   </si>
   <si>
+    <t>at grid node - r7933294-380</t>
+  </si>
+  <si>
     <t>w802058337-220</t>
   </si>
   <si>
+    <t>at grid node - w802058337-220</t>
+  </si>
+  <si>
     <t>w431234146-220</t>
   </si>
   <si>
+    <t>at grid node - w431234146-220</t>
+  </si>
+  <si>
     <t>w36348118-220</t>
   </si>
   <si>
+    <t>at grid node - w36348118-220</t>
+  </si>
+  <si>
     <t>w100662075-220</t>
   </si>
   <si>
+    <t>at grid node - w100662075-220</t>
+  </si>
+  <si>
     <t>w207993342-220</t>
   </si>
   <si>
+    <t>at grid node - w207993342-220</t>
+  </si>
+  <si>
     <t>w236819191-220</t>
   </si>
   <si>
+    <t>at grid node - w236819191-220</t>
+  </si>
+  <si>
     <t>w210568055-380</t>
   </si>
   <si>
+    <t>at grid node - w210568055-380</t>
+  </si>
+  <si>
     <t>CH59-220</t>
   </si>
   <si>
+    <t>at grid node - CH59-220</t>
+  </si>
+  <si>
     <t>w177392130-400</t>
   </si>
   <si>
+    <t>at grid node - w177392130-400</t>
+  </si>
+  <si>
     <t>CH60-225</t>
   </si>
   <si>
+    <t>at grid node - CH60-225</t>
+  </si>
+  <si>
     <t>w55698557-225</t>
   </si>
   <si>
+    <t>at grid node - w55698557-225</t>
+  </si>
+  <si>
     <t>EN_STG8hbNREL,EN_STG4hbNREL</t>
+  </si>
+  <si>
+    <t>e_demand,ev_battery</t>
+  </si>
+  <si>
+    <t>CH4-220</t>
+  </si>
+  <si>
+    <t>at grid node - CH4-220</t>
+  </si>
+  <si>
+    <t>CH5-220</t>
+  </si>
+  <si>
+    <t>at grid node - CH5-220</t>
+  </si>
+  <si>
+    <t>CH50-220</t>
+  </si>
+  <si>
+    <t>at grid node - CH50-220</t>
+  </si>
+  <si>
+    <t>CH52-220</t>
+  </si>
+  <si>
+    <t>at grid node - CH52-220</t>
+  </si>
+  <si>
+    <t>CH6-220</t>
+  </si>
+  <si>
+    <t>at grid node - CH6-220</t>
+  </si>
+  <si>
+    <t>r9310861-220</t>
+  </si>
+  <si>
+    <t>at grid node - r9310861-220</t>
+  </si>
+  <si>
+    <t>w109037817-380</t>
+  </si>
+  <si>
+    <t>at grid node - w109037817-380</t>
+  </si>
+  <si>
+    <t>w1105061707-380</t>
+  </si>
+  <si>
+    <t>at grid node - w1105061707-380</t>
+  </si>
+  <si>
+    <t>w111162936-380</t>
+  </si>
+  <si>
+    <t>at grid node - w111162936-380</t>
+  </si>
+  <si>
+    <t>w11282314-220</t>
+  </si>
+  <si>
+    <t>at grid node - w11282314-220</t>
+  </si>
+  <si>
+    <t>w122720993-220</t>
+  </si>
+  <si>
+    <t>at grid node - w122720993-220</t>
+  </si>
+  <si>
+    <t>w148015471-220</t>
+  </si>
+  <si>
+    <t>at grid node - w148015471-220</t>
+  </si>
+  <si>
+    <t>w161853746-220</t>
+  </si>
+  <si>
+    <t>at grid node - w161853746-220</t>
+  </si>
+  <si>
+    <t>w190819048-220</t>
+  </si>
+  <si>
+    <t>at grid node - w190819048-220</t>
+  </si>
+  <si>
+    <t>w22899676-220</t>
+  </si>
+  <si>
+    <t>at grid node - w22899676-220</t>
+  </si>
+  <si>
+    <t>w234983117-380</t>
+  </si>
+  <si>
+    <t>at grid node - w234983117-380</t>
+  </si>
+  <si>
+    <t>w240575085-220</t>
+  </si>
+  <si>
+    <t>at grid node - w240575085-220</t>
+  </si>
+  <si>
+    <t>w26166640-220</t>
+  </si>
+  <si>
+    <t>at grid node - w26166640-220</t>
+  </si>
+  <si>
+    <t>w26843160-220</t>
+  </si>
+  <si>
+    <t>at grid node - w26843160-220</t>
+  </si>
+  <si>
+    <t>w281799252-220</t>
+  </si>
+  <si>
+    <t>at grid node - w281799252-220</t>
+  </si>
+  <si>
+    <t>w31308888-220</t>
+  </si>
+  <si>
+    <t>at grid node - w31308888-220</t>
+  </si>
+  <si>
+    <t>w52738225-220</t>
+  </si>
+  <si>
+    <t>at grid node - w52738225-220</t>
+  </si>
+  <si>
+    <t>w52738225-380</t>
+  </si>
+  <si>
+    <t>at grid node - w52738225-380</t>
+  </si>
+  <si>
+    <t>w758315582-220</t>
+  </si>
+  <si>
+    <t>at grid node - w758315582-220</t>
+  </si>
+  <si>
+    <t>w92798668-220</t>
+  </si>
+  <si>
+    <t>at grid node - w92798668-220</t>
+  </si>
+  <si>
+    <t>w97941869-220</t>
+  </si>
+  <si>
+    <t>at grid node - w97941869-220</t>
   </si>
 </sst>
 </file>
@@ -523,8 +805,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
@@ -533,7 +815,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F46371-23D3-799D-0B25-FEDCD49613B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE505101-64F6-97BB-D594-3EB4F87F94A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -831,28 +1113,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268E9BAB-B98F-4B82-9042-51EABC9ED525}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.59765625" customWidth="1"/>
     <col min="7" max="7" width="10.59765625" customWidth="1"/>
-    <col min="8" max="9" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.59765625" customWidth="1"/>
     <col min="12" max="12" width="10.59765625" customWidth="1"/>
-    <col min="13" max="14" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.06640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1"/>
+    <col min="18" max="18" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -862,1062 +1151,1425 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="G12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="6" t="s">
+      <c r="G13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="G14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="G15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="G16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="J25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="O28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="L29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="6" t="s">
+      <c r="L30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="L31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O21" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="G32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G33" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G34" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G35" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G36" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G37" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G39" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G40" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G41" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G42" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G43" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G44" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G45" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="7:20" x14ac:dyDescent="0.45">
       <c r="L46" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20" x14ac:dyDescent="0.45">
       <c r="L47" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="7:15" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20" x14ac:dyDescent="0.45">
       <c r="L48" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1956,13 +2608,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -1971,69 +2623,69 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L2">
         <v>2700</v>
@@ -2045,42 +2697,42 @@
         <v>2700</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L3">
         <v>1110</v>
@@ -2092,42 +2744,42 @@
         <v>480</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L4">
         <v>4060</v>
@@ -2139,42 +2791,42 @@
         <v>1980</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5">
         <v>1500</v>
@@ -2186,42 +2838,42 @@
         <v>1370</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6">
         <v>70</v>
@@ -2233,42 +2885,42 @@
         <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L7">
         <v>16</v>
@@ -2280,42 +2932,42 @@
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8">
         <v>120</v>
@@ -2327,42 +2979,42 @@
         <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L9">
         <v>38</v>
@@ -2374,42 +3026,42 @@
         <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -2421,42 +3073,42 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L11">
         <v>1.5</v>
@@ -2468,42 +3120,42 @@
         <v>1.5</v>
       </c>
       <c r="O11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -2515,42 +3167,42 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13">
         <v>1.5</v>
@@ -2562,7 +3214,7 @@
         <v>1.5</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2572,10 +3224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C3:X41"/>
+  <dimension ref="C3:X43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2594,7 +3246,7 @@
   <sheetData>
     <row r="3" spans="3:24" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.45">
@@ -2602,10 +3254,10 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
         <v>21</v>
@@ -2628,13 +3280,13 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
         <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.45">
@@ -2642,19 +3294,19 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1">
         <v>8.76</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.45">
@@ -2662,19 +3314,19 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7">
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.45">
@@ -2682,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -2704,29 +3356,38 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8.76</v>
+      </c>
       <c r="P11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="T12" t="s">
         <v>21</v>
@@ -2737,7 +3398,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="2">
         <v>2700</v>
@@ -2753,7 +3414,7 @@
         <v>EN[_]Hydro*</v>
       </c>
       <c r="W13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X13" t="s">
         <v>19</v>
@@ -2776,7 +3437,7 @@
         <v>5</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="2">
         <v>1110</v>
@@ -2792,10 +3453,10 @@
         <v>E[_]SPV*</v>
       </c>
       <c r="W14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="3:24" x14ac:dyDescent="0.45">
@@ -2806,7 +3467,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2815,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="2">
         <v>4060</v>
@@ -2831,10 +3492,10 @@
         <v>E[_]WOF*</v>
       </c>
       <c r="W15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="3:24" x14ac:dyDescent="0.45">
@@ -2842,13 +3503,13 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1">
         <v>8.76</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="2">
         <v>1500</v>
@@ -2864,10 +3525,10 @@
         <v>E[_]WON*</v>
       </c>
       <c r="W16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="3:24" x14ac:dyDescent="0.45">
@@ -2875,13 +3536,13 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="2">
         <v>70</v>
@@ -2910,13 +3571,13 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="2">
         <v>16</v>
@@ -2945,13 +3606,13 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="2">
         <v>120</v>
@@ -2980,13 +3641,13 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="2">
         <v>38</v>
@@ -3021,7 +3682,7 @@
         <v>0.25</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="2">
         <v>4</v>
@@ -3050,13 +3711,13 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="2">
         <v>1.5</v>
@@ -3082,7 +3743,7 @@
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P23" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="2">
         <v>3</v>
@@ -3108,7 +3769,7 @@
     </row>
     <row r="24" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="2">
         <v>1.5</v>
@@ -3167,7 +3828,7 @@
     </row>
     <row r="30" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -3255,10 +3916,10 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" t="s">
         <v>24</v>
-      </c>
-      <c r="E40" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.45">
@@ -3266,10 +3927,32 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{605B3658-F059-4C54-8834-2283282601CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDEEC29E-20E6-4EEF-8A80-D238A017F38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE505101-64F6-97BB-D594-3EB4F87F94A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAAED3F-D9E9-46FA-C04F-AE5AE8201F0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDEEC29E-20E6-4EEF-8A80-D238A017F38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A3433B-FAAE-4310-A8D0-4326620D156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAAED3F-D9E9-46FA-C04F-AE5AE8201F0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808C6A51-48E3-B065-5328-CA7C06DB8D01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A3433B-FAAE-4310-A8D0-4326620D156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB653BF9-17EB-437F-AA68-DFB6FD42FECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808C6A51-48E3-B065-5328-CA7C06DB8D01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8760F81C-2E68-9A0B-8390-F8D404BA98E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB653BF9-17EB-437F-AA68-DFB6FD42FECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{049ACDD8-B8A8-4B60-9603-0528449DD6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8760F81C-2E68-9A0B-8390-F8D404BA98E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657F2119-1FC2-54E2-14EA-E7AA9DE6FCE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{049ACDD8-B8A8-4B60-9603-0528449DD6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{076DD5C0-C978-40BE-B892-3FB270AE47E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657F2119-1FC2-54E2-14EA-E7AA9DE6FCE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343B7AFC-0238-176D-B8FF-56C80E7AB9D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{076DD5C0-C978-40BE-B892-3FB270AE47E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD17F34-9AB0-4834-98BA-8C7816C5C885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="208">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -115,9 +115,6 @@
     <t>IN</t>
   </si>
   <si>
-    <t>~TFM_FILL-R: w=weo_pg; hcol=year</t>
-  </si>
-  <si>
     <t>attribute</t>
   </si>
   <si>
@@ -239,6 +236,21 @@
   </si>
   <si>
     <t>wind</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>solar,wind,coal,gas,nuclear,hydro</t>
+  </si>
+  <si>
+    <t>attrib_cond</t>
+  </si>
+  <si>
+    <t>-pasti</t>
   </si>
   <si>
     <t>~replicateinregions</t>
@@ -767,10 +779,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -815,7 +828,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343B7AFC-0238-176D-B8FF-56C80E7AB9D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6D5039-547A-7F75-0A71-C4DEB83A2E86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,9 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268E9BAB-B98F-4B82-9042-51EABC9ED525}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1140,20 +1151,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -1161,1415 +1172,1415 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>67</v>
+      <c r="B9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="G10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" s="5" t="s">
+      <c r="L10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="T10" s="5" t="s">
+      <c r="Q10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="E12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" s="6" t="s">
+      <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="G14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="G15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="G16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G26" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G42" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G44" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="Q11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="T11" s="6" t="s">
+      <c r="I44" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="J44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G45" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="L46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="L47" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="T12" s="7" t="s">
+      <c r="N47" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R13" s="6" t="s">
+      <c r="O47" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="L48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="N48" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="T13" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="G14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R14" s="7" t="s">
+      <c r="O48" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="G15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="G16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="T19" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="T21" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="S26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="T26" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="T27" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R28" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="S28" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="T29" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R30" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="S30" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="T30" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="T31" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R32" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="S32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="T32" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="T33" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R34" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="S34" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="T34" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R35" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="T35" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R36" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="S36" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="T36" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R37" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="S37" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="T37" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R38" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="S38" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="T38" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="S39" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="T39" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="N42" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G43" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G44" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="N44" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="L46" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="L47" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="L48" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2585,9 +2596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3954DD3-0F24-46DF-B268-7A98442D0282}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2608,13 +2617,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -2623,69 +2632,69 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>43</v>
-      </c>
-      <c r="O1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
       <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2">
         <v>2700</v>
@@ -2697,42 +2706,42 @@
         <v>2700</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3">
         <v>1110</v>
@@ -2744,42 +2753,42 @@
         <v>480</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4">
         <v>4060</v>
@@ -2791,42 +2800,42 @@
         <v>1980</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5">
         <v>1500</v>
@@ -2838,42 +2847,42 @@
         <v>1370</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
       <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6">
         <v>70</v>
@@ -2885,42 +2894,42 @@
         <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7">
         <v>16</v>
@@ -2932,42 +2941,42 @@
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8">
         <v>120</v>
@@ -2979,42 +2988,42 @@
         <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9">
         <v>38</v>
@@ -3026,42 +3035,42 @@
         <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -3073,42 +3082,42 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11">
         <v>1.5</v>
@@ -3120,42 +3129,42 @@
         <v>1.5</v>
       </c>
       <c r="O11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -3167,42 +3176,42 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13">
         <v>1.5</v>
@@ -3214,7 +3223,7 @@
         <v>1.5</v>
       </c>
       <c r="O13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3224,10 +3233,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C3:X43"/>
+  <dimension ref="C4:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3244,20 +3253,15 @@
     <col min="14" max="14" width="4.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
         <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
       </c>
       <c r="N4" t="s">
         <v>21</v>
@@ -3280,13 +3284,13 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>29</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.45">
@@ -3294,19 +3298,19 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1">
         <v>8.76</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
         <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.45">
@@ -3314,19 +3318,19 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7">
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
         <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.45">
@@ -3334,7 +3338,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -3356,7 +3360,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10">
         <v>20</v>
@@ -3367,27 +3371,27 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1">
         <v>8.76</v>
       </c>
       <c r="P11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="T12" t="s">
         <v>21</v>
@@ -3398,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="2">
         <v>2700</v>
@@ -3414,7 +3418,7 @@
         <v>EN[_]Hydro*</v>
       </c>
       <c r="W13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X13" t="s">
         <v>19</v>
@@ -3437,7 +3441,7 @@
         <v>5</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="2">
         <v>1110</v>
@@ -3453,10 +3457,10 @@
         <v>E[_]SPV*</v>
       </c>
       <c r="W14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="3:24" x14ac:dyDescent="0.45">
@@ -3467,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3476,7 +3480,7 @@
         <v>3</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="2">
         <v>4060</v>
@@ -3492,10 +3496,10 @@
         <v>E[_]WOF*</v>
       </c>
       <c r="W15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="3:24" x14ac:dyDescent="0.45">
@@ -3503,13 +3507,13 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1">
         <v>8.76</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="2">
         <v>1500</v>
@@ -3525,10 +3529,10 @@
         <v>E[_]WON*</v>
       </c>
       <c r="W16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="3:24" x14ac:dyDescent="0.45">
@@ -3536,13 +3540,13 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="2">
         <v>70</v>
@@ -3571,13 +3575,13 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="2">
         <v>16</v>
@@ -3606,13 +3610,13 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="2">
         <v>120</v>
@@ -3641,13 +3645,13 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="2">
         <v>38</v>
@@ -3682,7 +3686,7 @@
         <v>0.25</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="2">
         <v>4</v>
@@ -3711,13 +3715,13 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="2">
         <v>1.5</v>
@@ -3743,7 +3747,7 @@
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="2">
         <v>3</v>
@@ -3769,7 +3773,7 @@
     </row>
     <row r="24" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="2">
         <v>1.5</v>
@@ -3828,7 +3832,7 @@
     </row>
     <row r="30" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -3916,7 +3920,7 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
         <v>24</v>
@@ -3927,7 +3931,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
         <v>24</v>
@@ -3935,10 +3939,10 @@
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
         <v>24</v>
@@ -3946,13 +3950,46 @@
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48">
+        <v>2025</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD17F34-9AB0-4834-98BA-8C7816C5C885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC0D68A-49EB-4986-A189-64BD38FE2220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6D5039-547A-7F75-0A71-C4DEB83A2E86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6942C0E-0921-88C5-90E7-E6F9F4ECE007}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC0D68A-49EB-4986-A189-64BD38FE2220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{370AAEC5-07FE-489A-B50F-D6B5E31617AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6942C0E-0921-88C5-90E7-E6F9F4ECE007}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35041551-8A27-DF47-DA5F-3C36E95D3B73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{370AAEC5-07FE-489A-B50F-D6B5E31617AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95196D8C-9C44-43B0-9B39-2BF0016DBC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35041551-8A27-DF47-DA5F-3C36E95D3B73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A61DAC-0429-6295-CA8A-B1A731C62405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95196D8C-9C44-43B0-9B39-2BF0016DBC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64008DF2-DEF4-4804-824B-EC663B1EC37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A61DAC-0429-6295-CA8A-B1A731C62405}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3057B38E-16D6-443B-5782-7CBEBED7CE34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64008DF2-DEF4-4804-824B-EC663B1EC37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F4B4A5-3870-4AE2-8D8B-CFDDAC89CFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,7 +505,7 @@
     <t>EN_STG8hbNREL,EN_STG4hbNREL</t>
   </si>
   <si>
-    <t>e_demand,ev_battery</t>
+    <t>e_demand,ev_battery,H2prd_Elc_PEM,H2prd_Elc_ALK</t>
   </si>
   <si>
     <t>CH4-220</t>
@@ -828,7 +828,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3057B38E-16D6-443B-5782-7CBEBED7CE34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C439CB5D-945B-D2D4-1A94-CE2E83FB8060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,7 +1147,7 @@
     <col min="17" max="17" width="10.59765625" customWidth="1"/>
     <col min="18" max="18" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F4B4A5-3870-4AE2-8D8B-CFDDAC89CFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{801F5487-B28A-4D5B-8233-0A7E949C4629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C439CB5D-945B-D2D4-1A94-CE2E83FB8060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951FDC2A-11CE-95D2-8464-E55859E3E3BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{801F5487-B28A-4D5B-8233-0A7E949C4629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B64289E2-B941-41C3-B570-FB4DD48D1FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951FDC2A-11CE-95D2-8464-E55859E3E3BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B83551-3912-E1BD-9F31-D7FC4FA006A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B64289E2-B941-41C3-B570-FB4DD48D1FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4641573-2418-49C0-BFDE-76B938C5A592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B83551-3912-E1BD-9F31-D7FC4FA006A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CABB4F4-27A1-A387-ED49-2B5098B11B85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4641573-2418-49C0-BFDE-76B938C5A592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84B1849-34E8-4FB7-8720-612C3FECF816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,10 +598,10 @@
     <t>at grid node - w22899676-220</t>
   </si>
   <si>
-    <t>w234983117-380</t>
-  </si>
-  <si>
-    <t>at grid node - w234983117-380</t>
+    <t>w239937062-220</t>
+  </si>
+  <si>
+    <t>at grid node - w239937062-220</t>
   </si>
   <si>
     <t>w240575085-220</t>
@@ -828,7 +828,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CABB4F4-27A1-A387-ED49-2B5098B11B85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEB59ED-FC52-2D49-BCBD-258FAFE23B17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84B1849-34E8-4FB7-8720-612C3FECF816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB6A52C5-0061-4A00-8863-A91452F30F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEB59ED-FC52-2D49-BCBD-258FAFE23B17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679D2EF7-3D79-EABC-9D3A-2B3BF1D98AC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB6A52C5-0061-4A00-8863-A91452F30F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5632A44D-0E19-48F5-9D1E-D8437F336F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679D2EF7-3D79-EABC-9D3A-2B3BF1D98AC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC30103-592F-6178-5FA2-BFA65DB29965}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5632A44D-0E19-48F5-9D1E-D8437F336F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3769C9ED-39BC-4B1A-85E0-F3B28CB40BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="211">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -244,13 +244,22 @@
     <t>pset_ci</t>
   </si>
   <si>
-    <t>solar,wind,coal,gas,nuclear,hydro</t>
-  </si>
-  <si>
     <t>attrib_cond</t>
   </si>
   <si>
     <t>-pasti</t>
+  </si>
+  <si>
+    <t>solar,wind,coal,gas,nuclear,hydro,bioenergy</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>-life</t>
+  </si>
+  <si>
+    <t>coal,gas,nuclear,bioenergy</t>
   </si>
   <si>
     <t>~replicateinregions</t>
@@ -828,7 +837,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC30103-592F-6178-5FA2-BFA65DB29965}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3C31AE-A666-A735-739C-4F94BF9B348F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1152,7 +1161,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1185,16 +1194,16 @@
     </row>
     <row r="9" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -1202,10 +1211,10 @@
         <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>21</v>
@@ -1214,10 +1223,10 @@
         <v>33</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>21</v>
@@ -1226,10 +1235,10 @@
         <v>33</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>21</v>
@@ -1238,10 +1247,10 @@
         <v>33</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>21</v>
@@ -1249,1338 +1258,1338 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="G14" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="T14" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="G16" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G18" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G20" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G21" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G22" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G23" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G24" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G25" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G26" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G27" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G28" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G29" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G30" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G31" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G32" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G33" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G34" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G36" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G37" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G38" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G39" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G40" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G41" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G42" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G43" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G44" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G45" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="7:20" x14ac:dyDescent="0.45">
       <c r="L46" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="7:20" x14ac:dyDescent="0.45">
       <c r="L47" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="7:20" x14ac:dyDescent="0.45">
       <c r="L48" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3233,10 +3242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C4:X48"/>
+  <dimension ref="C4:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3972,7 +3981,7 @@
         <v>26</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47" t="s">
         <v>67</v>
@@ -3986,10 +3995,24 @@
         <v>2025</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" t="s">
         <v>70</v>
       </c>
-      <c r="F48" t="s">
-        <v>68</v>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3769C9ED-39BC-4B1A-85E0-F3B28CB40BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3F5C64C-57C2-4DB4-8BB7-B2C264ABFCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,7 +837,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3C31AE-A666-A735-739C-4F94BF9B348F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C31465C-60CE-CAA1-B495-1BFAA654EAFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3F5C64C-57C2-4DB4-8BB7-B2C264ABFCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFA9D33D-0DAC-4654-AFFA-5D76A220AA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,7 +837,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C31465C-60CE-CAA1-B495-1BFAA654EAFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E25426B-44C6-ACCF-E4B9-CF039A7ADC63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFA9D33D-0DAC-4654-AFFA-5D76A220AA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BADF012D-CE94-4FAF-AC99-24A53652E094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,7 +837,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E25426B-44C6-ACCF-E4B9-CF039A7ADC63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8CDE2B-22FC-87B4-2ABF-3F98DB9C72A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BADF012D-CE94-4FAF-AC99-24A53652E094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E06D31-1876-4101-BC55-A3ACF5923159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="257">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -226,18 +226,12 @@
     <t>ELC_spv*</t>
   </si>
   <si>
-    <t>ELC_won*</t>
-  </si>
-  <si>
     <t>Trd_elec*</t>
   </si>
   <si>
     <t>solar</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -262,6 +256,15 @@
     <t>coal,gas,nuclear,bioenergy</t>
   </si>
   <si>
+    <t>windoff</t>
+  </si>
+  <si>
+    <t>windon</t>
+  </si>
+  <si>
+    <t>ELC_wo*</t>
+  </si>
+  <si>
     <t>~replicateinregions</t>
   </si>
   <si>
@@ -295,7 +298,31 @@
     <t>at grid node - w35840165-380</t>
   </si>
   <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+    <t>w1284913429-220</t>
+  </si>
+  <si>
+    <t>at grid node - w1284913429-220</t>
+  </si>
+  <si>
+    <t>w161853746-220</t>
+  </si>
+  <si>
+    <t>at grid node - w161853746-220</t>
+  </si>
+  <si>
+    <t>w55698557-220</t>
+  </si>
+  <si>
+    <t>at grid node - w55698557-220</t>
+  </si>
+  <si>
+    <t>w236819191-220</t>
+  </si>
+  <si>
+    <t>at grid node - w236819191-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CHE-1,EN_Hydro_CHE-2,EN_Hydro_CHE-3</t>
   </si>
   <si>
     <t>w140873735-220</t>
@@ -304,7 +331,10 @@
     <t>at grid node - w140873735-220</t>
   </si>
   <si>
-    <t>EN_Hydro_CHE-1,EN_Hydro_CHE-2,EN_Hydro_CHE-3</t>
+    <t>w234983117-380</t>
+  </si>
+  <si>
+    <t>at grid node - w234983117-380</t>
   </si>
   <si>
     <t>w1208713169-220</t>
@@ -331,18 +361,54 @@
     <t>at grid node - w234983117-220</t>
   </si>
   <si>
+    <t>w109037817-380</t>
+  </si>
+  <si>
+    <t>at grid node - w109037817-380</t>
+  </si>
+  <si>
     <t>CH46-220</t>
   </si>
   <si>
     <t>at grid node - CH46-220</t>
   </si>
   <si>
+    <t>w207991759-380</t>
+  </si>
+  <si>
+    <t>at grid node - w207991759-380</t>
+  </si>
+  <si>
+    <t>CH45-220</t>
+  </si>
+  <si>
+    <t>at grid node - CH45-220</t>
+  </si>
+  <si>
     <t>w1327084723-220</t>
   </si>
   <si>
     <t>at grid node - w1327084723-220</t>
   </si>
   <si>
+    <t>CH57-220</t>
+  </si>
+  <si>
+    <t>at grid node - CH57-220</t>
+  </si>
+  <si>
+    <t>w212722603-220</t>
+  </si>
+  <si>
+    <t>at grid node - w212722603-220</t>
+  </si>
+  <si>
+    <t>w27107779-220</t>
+  </si>
+  <si>
+    <t>at grid node - w27107779-220</t>
+  </si>
+  <si>
     <t>CH13-220</t>
   </si>
   <si>
@@ -355,12 +421,30 @@
     <t>at grid node - w212498548-220</t>
   </si>
   <si>
+    <t>w364949845-380</t>
+  </si>
+  <si>
+    <t>at grid node - w364949845-380</t>
+  </si>
+  <si>
+    <t>w208780268-380</t>
+  </si>
+  <si>
+    <t>at grid node - w208780268-380</t>
+  </si>
+  <si>
     <t>w758943072-220</t>
   </si>
   <si>
     <t>at grid node - w758943072-220</t>
   </si>
   <si>
+    <t>w391576135-220</t>
+  </si>
+  <si>
+    <t>at grid node - w391576135-220</t>
+  </si>
+  <si>
     <t>CH56-220</t>
   </si>
   <si>
@@ -391,12 +475,24 @@
     <t>at grid node - w240959264-220</t>
   </si>
   <si>
+    <t>w365556107-220</t>
+  </si>
+  <si>
+    <t>at grid node - w365556107-220</t>
+  </si>
+  <si>
     <t>w936521586-380</t>
   </si>
   <si>
     <t>at grid node - w936521586-380</t>
   </si>
   <si>
+    <t>CH53-225</t>
+  </si>
+  <si>
+    <t>at grid node - CH53-225</t>
+  </si>
+  <si>
     <t>w260211728-380</t>
   </si>
   <si>
@@ -409,12 +505,24 @@
     <t>at grid node - CH18-220</t>
   </si>
   <si>
+    <t>CH16-380</t>
+  </si>
+  <si>
+    <t>at grid node - CH16-380</t>
+  </si>
+  <si>
     <t>CH47-220</t>
   </si>
   <si>
     <t>at grid node - CH47-220</t>
   </si>
   <si>
+    <t>w431234146-220</t>
+  </si>
+  <si>
+    <t>at grid node - w431234146-220</t>
+  </si>
+  <si>
     <t>CH17-380</t>
   </si>
   <si>
@@ -427,6 +535,18 @@
     <t>at grid node - CH22-220</t>
   </si>
   <si>
+    <t>w212722603-380</t>
+  </si>
+  <si>
+    <t>at grid node - w212722603-380</t>
+  </si>
+  <si>
+    <t>w1105061707-220</t>
+  </si>
+  <si>
+    <t>at grid node - w1105061707-220</t>
+  </si>
+  <si>
     <t>w238138373-380</t>
   </si>
   <si>
@@ -439,6 +559,18 @@
     <t>at grid node - CH32-220</t>
   </si>
   <si>
+    <t>CH42-220</t>
+  </si>
+  <si>
+    <t>at grid node - CH42-220</t>
+  </si>
+  <si>
+    <t>w969811258-380</t>
+  </si>
+  <si>
+    <t>at grid node - w969811258-380</t>
+  </si>
+  <si>
     <t>r7933294-380</t>
   </si>
   <si>
@@ -451,34 +583,34 @@
     <t>at grid node - w802058337-220</t>
   </si>
   <si>
-    <t>w431234146-220</t>
-  </si>
-  <si>
-    <t>at grid node - w431234146-220</t>
-  </si>
-  <si>
     <t>w36348118-220</t>
   </si>
   <si>
     <t>at grid node - w36348118-220</t>
   </si>
   <si>
+    <t>w207993342-220</t>
+  </si>
+  <si>
+    <t>at grid node - w207993342-220</t>
+  </si>
+  <si>
+    <t>w211907009-220</t>
+  </si>
+  <si>
+    <t>at grid node - w211907009-220</t>
+  </si>
+  <si>
     <t>w100662075-220</t>
   </si>
   <si>
     <t>at grid node - w100662075-220</t>
   </si>
   <si>
-    <t>w207993342-220</t>
-  </si>
-  <si>
-    <t>at grid node - w207993342-220</t>
-  </si>
-  <si>
-    <t>w236819191-220</t>
-  </si>
-  <si>
-    <t>at grid node - w236819191-220</t>
+    <t>w281804158-220</t>
+  </si>
+  <si>
+    <t>at grid node - w281804158-220</t>
   </si>
   <si>
     <t>w210568055-380</t>
@@ -487,6 +619,18 @@
     <t>at grid node - w210568055-380</t>
   </si>
   <si>
+    <t>CH29-380</t>
+  </si>
+  <si>
+    <t>at grid node - CH29-380</t>
+  </si>
+  <si>
+    <t>w159527493-220</t>
+  </si>
+  <si>
+    <t>at grid node - w159527493-220</t>
+  </si>
+  <si>
     <t>CH59-220</t>
   </si>
   <si>
@@ -511,6 +655,12 @@
     <t>at grid node - w55698557-225</t>
   </si>
   <si>
+    <t>w228003081-220</t>
+  </si>
+  <si>
+    <t>at grid node - w228003081-220</t>
+  </si>
+  <si>
     <t>EN_STG8hbNREL,EN_STG4hbNREL</t>
   </si>
   <si>
@@ -553,12 +703,6 @@
     <t>at grid node - r9310861-220</t>
   </si>
   <si>
-    <t>w109037817-380</t>
-  </si>
-  <si>
-    <t>at grid node - w109037817-380</t>
-  </si>
-  <si>
     <t>w1105061707-380</t>
   </si>
   <si>
@@ -587,12 +731,6 @@
   </si>
   <si>
     <t>at grid node - w148015471-220</t>
-  </si>
-  <si>
-    <t>w161853746-220</t>
-  </si>
-  <si>
-    <t>at grid node - w161853746-220</t>
   </si>
   <si>
     <t>w190819048-220</t>
@@ -677,7 +815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,61 +830,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="7"/>
-      <color rgb="FF969696"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -754,52 +847,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,61 +871,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8CDE2B-22FC-87B4-2ABF-3F98DB9C72A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,48 +1136,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268E9BAB-B98F-4B82-9042-51EABC9ED525}">
-  <dimension ref="A1:T48"/>
+  <dimension ref="B3:T73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.59765625" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" customWidth="1"/>
-    <col min="13" max="13" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.06640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.59765625" customWidth="1"/>
-    <col min="18" max="18" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>59</v>
       </c>
@@ -1192,1412 +1163,2070 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="6" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="6" t="s">
+      <c r="M10" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" s="6" t="s">
+      <c r="R10" t="s">
         <v>76</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="S10" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="7" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" t="s">
+        <v>124</v>
+      </c>
+      <c r="T11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" t="s">
+        <v>161</v>
+      </c>
+      <c r="S12" t="s">
+        <v>162</v>
+      </c>
+      <c r="T12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" t="s">
+        <v>209</v>
+      </c>
+      <c r="S13" t="s">
+        <v>210</v>
+      </c>
+      <c r="T13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="D14" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" t="s">
+        <v>211</v>
+      </c>
+      <c r="S14" t="s">
+        <v>212</v>
+      </c>
+      <c r="T14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R15" t="s">
+        <v>213</v>
+      </c>
+      <c r="S15" t="s">
+        <v>214</v>
+      </c>
+      <c r="T15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>78</v>
+      </c>
+      <c r="R16" t="s">
+        <v>215</v>
+      </c>
+      <c r="S16" t="s">
+        <v>216</v>
+      </c>
+      <c r="T16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>78</v>
+      </c>
+      <c r="R17" t="s">
+        <v>217</v>
+      </c>
+      <c r="S17" t="s">
+        <v>218</v>
+      </c>
+      <c r="T17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>78</v>
+      </c>
+      <c r="R18" t="s">
+        <v>219</v>
+      </c>
+      <c r="S18" t="s">
+        <v>220</v>
+      </c>
+      <c r="T18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>78</v>
+      </c>
+      <c r="R19" t="s">
+        <v>107</v>
+      </c>
+      <c r="S19" t="s">
+        <v>108</v>
+      </c>
+      <c r="T19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R20" t="s">
+        <v>221</v>
+      </c>
+      <c r="S20" t="s">
+        <v>222</v>
+      </c>
+      <c r="T20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>78</v>
+      </c>
+      <c r="R21" t="s">
+        <v>223</v>
+      </c>
+      <c r="S21" t="s">
+        <v>224</v>
+      </c>
+      <c r="T21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>78</v>
+      </c>
+      <c r="R22" t="s">
+        <v>225</v>
+      </c>
+      <c r="S22" t="s">
+        <v>226</v>
+      </c>
+      <c r="T22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" t="s">
+        <v>105</v>
+      </c>
+      <c r="N23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>78</v>
+      </c>
+      <c r="R23" t="s">
+        <v>227</v>
+      </c>
+      <c r="S23" t="s">
+        <v>228</v>
+      </c>
+      <c r="T23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" t="s">
+        <v>107</v>
+      </c>
+      <c r="N24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>78</v>
+      </c>
+      <c r="R24" t="s">
+        <v>229</v>
+      </c>
+      <c r="S24" t="s">
+        <v>230</v>
+      </c>
+      <c r="T24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>78</v>
+      </c>
+      <c r="R25" t="s">
+        <v>88</v>
+      </c>
+      <c r="S25" t="s">
+        <v>89</v>
+      </c>
+      <c r="T25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" t="s">
+        <v>111</v>
+      </c>
+      <c r="N26" t="s">
+        <v>112</v>
+      </c>
+      <c r="O26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>78</v>
+      </c>
+      <c r="R26" t="s">
+        <v>231</v>
+      </c>
+      <c r="S26" t="s">
+        <v>232</v>
+      </c>
+      <c r="T26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" t="s">
+        <v>113</v>
+      </c>
+      <c r="N27" t="s">
+        <v>114</v>
+      </c>
+      <c r="O27" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" t="s">
+        <v>233</v>
+      </c>
+      <c r="S27" t="s">
+        <v>234</v>
+      </c>
+      <c r="T27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" t="s">
+        <v>115</v>
+      </c>
+      <c r="N28" t="s">
+        <v>116</v>
+      </c>
+      <c r="O28" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>78</v>
+      </c>
+      <c r="R28" t="s">
+        <v>235</v>
+      </c>
+      <c r="S28" t="s">
+        <v>236</v>
+      </c>
+      <c r="T28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M29" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" t="s">
+        <v>118</v>
+      </c>
+      <c r="O29" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>78</v>
+      </c>
+      <c r="R29" t="s">
+        <v>237</v>
+      </c>
+      <c r="S29" t="s">
+        <v>238</v>
+      </c>
+      <c r="T29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" t="s">
+        <v>119</v>
+      </c>
+      <c r="N30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O30" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>78</v>
+      </c>
+      <c r="R30" t="s">
+        <v>239</v>
+      </c>
+      <c r="S30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" t="s">
+        <v>78</v>
+      </c>
+      <c r="M31" t="s">
+        <v>121</v>
+      </c>
+      <c r="N31" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>78</v>
+      </c>
+      <c r="R31" t="s">
+        <v>241</v>
+      </c>
+      <c r="S31" t="s">
+        <v>242</v>
+      </c>
+      <c r="T31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
+      <c r="L32" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32" t="s">
+        <v>123</v>
+      </c>
+      <c r="N32" t="s">
+        <v>124</v>
+      </c>
+      <c r="O32" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>78</v>
+      </c>
+      <c r="R32" t="s">
+        <v>243</v>
+      </c>
+      <c r="S32" t="s">
+        <v>244</v>
+      </c>
+      <c r="T32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" t="s">
+        <v>94</v>
+      </c>
+      <c r="L33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33" t="s">
+        <v>125</v>
+      </c>
+      <c r="N33" t="s">
+        <v>126</v>
+      </c>
+      <c r="O33" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>78</v>
+      </c>
+      <c r="R33" t="s">
+        <v>245</v>
+      </c>
+      <c r="S33" t="s">
+        <v>246</v>
+      </c>
+      <c r="T33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" t="s">
+        <v>140</v>
+      </c>
+      <c r="J34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L34" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" t="s">
+        <v>127</v>
+      </c>
+      <c r="N34" t="s">
+        <v>128</v>
+      </c>
+      <c r="O34" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>78</v>
+      </c>
+      <c r="R34" t="s">
+        <v>247</v>
+      </c>
+      <c r="S34" t="s">
+        <v>248</v>
+      </c>
+      <c r="T34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35" t="s">
+        <v>129</v>
+      </c>
+      <c r="N35" t="s">
+        <v>130</v>
+      </c>
+      <c r="O35" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>78</v>
+      </c>
+      <c r="R35" t="s">
+        <v>249</v>
+      </c>
+      <c r="S35" t="s">
+        <v>250</v>
+      </c>
+      <c r="T35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" t="s">
+        <v>144</v>
+      </c>
+      <c r="J36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L36" t="s">
+        <v>78</v>
+      </c>
+      <c r="M36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N36" t="s">
+        <v>132</v>
+      </c>
+      <c r="O36" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>78</v>
+      </c>
+      <c r="R36" t="s">
+        <v>203</v>
+      </c>
+      <c r="S36" t="s">
+        <v>204</v>
+      </c>
+      <c r="T36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" t="s">
+        <v>94</v>
+      </c>
+      <c r="L37" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" t="s">
+        <v>133</v>
+      </c>
+      <c r="N37" t="s">
+        <v>134</v>
+      </c>
+      <c r="O37" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>78</v>
+      </c>
+      <c r="R37" t="s">
+        <v>251</v>
+      </c>
+      <c r="S37" t="s">
+        <v>252</v>
+      </c>
+      <c r="T37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s">
+        <v>147</v>
+      </c>
+      <c r="I38" t="s">
+        <v>148</v>
+      </c>
+      <c r="J38" t="s">
+        <v>94</v>
+      </c>
+      <c r="L38" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" t="s">
+        <v>135</v>
+      </c>
+      <c r="N38" t="s">
+        <v>136</v>
+      </c>
+      <c r="O38" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>78</v>
+      </c>
+      <c r="R38" t="s">
+        <v>253</v>
+      </c>
+      <c r="S38" t="s">
+        <v>254</v>
+      </c>
+      <c r="T38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" t="s">
+        <v>150</v>
+      </c>
+      <c r="J39" t="s">
+        <v>94</v>
+      </c>
+      <c r="L39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M39" t="s">
+        <v>137</v>
+      </c>
+      <c r="N39" t="s">
+        <v>138</v>
+      </c>
+      <c r="O39" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>78</v>
+      </c>
+      <c r="R39" t="s">
+        <v>255</v>
+      </c>
+      <c r="S39" t="s">
+        <v>256</v>
+      </c>
+      <c r="T39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s">
+        <v>151</v>
+      </c>
+      <c r="I40" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" t="s">
+        <v>94</v>
+      </c>
+      <c r="L40" t="s">
+        <v>78</v>
+      </c>
+      <c r="M40" t="s">
+        <v>139</v>
+      </c>
+      <c r="N40" t="s">
+        <v>140</v>
+      </c>
+      <c r="O40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s">
+        <v>153</v>
+      </c>
+      <c r="I41" t="s">
+        <v>154</v>
+      </c>
+      <c r="J41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" t="s">
+        <v>78</v>
+      </c>
+      <c r="M41" t="s">
+        <v>141</v>
+      </c>
+      <c r="N41" t="s">
+        <v>142</v>
+      </c>
+      <c r="O41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" t="s">
+        <v>94</v>
+      </c>
+      <c r="L42" t="s">
+        <v>78</v>
+      </c>
+      <c r="M42" t="s">
+        <v>143</v>
+      </c>
+      <c r="N42" t="s">
+        <v>144</v>
+      </c>
+      <c r="O42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s">
         <v>157</v>
       </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="T11" s="7" t="s">
+      <c r="I43" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" s="8" t="s">
+      <c r="J43" t="s">
+        <v>94</v>
+      </c>
+      <c r="L43" t="s">
+        <v>78</v>
+      </c>
+      <c r="M43" t="s">
+        <v>145</v>
+      </c>
+      <c r="N43" t="s">
+        <v>146</v>
+      </c>
+      <c r="O43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I44" t="s">
+        <v>160</v>
+      </c>
+      <c r="J44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L44" t="s">
+        <v>78</v>
+      </c>
+      <c r="M44" t="s">
+        <v>147</v>
+      </c>
+      <c r="N44" t="s">
+        <v>148</v>
+      </c>
+      <c r="O44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s">
+        <v>161</v>
+      </c>
+      <c r="I45" t="s">
+        <v>162</v>
+      </c>
+      <c r="J45" t="s">
+        <v>94</v>
+      </c>
+      <c r="L45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M45" t="s">
+        <v>149</v>
+      </c>
+      <c r="N45" t="s">
+        <v>150</v>
+      </c>
+      <c r="O45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s">
+        <v>163</v>
+      </c>
+      <c r="I46" t="s">
+        <v>164</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+      <c r="L46" t="s">
+        <v>78</v>
+      </c>
+      <c r="M46" t="s">
+        <v>151</v>
+      </c>
+      <c r="N46" t="s">
+        <v>152</v>
+      </c>
+      <c r="O46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s">
+        <v>165</v>
+      </c>
+      <c r="I47" t="s">
+        <v>166</v>
+      </c>
+      <c r="J47" t="s">
+        <v>94</v>
+      </c>
+      <c r="L47" t="s">
+        <v>78</v>
+      </c>
+      <c r="M47" t="s">
+        <v>153</v>
+      </c>
+      <c r="N47" t="s">
+        <v>154</v>
+      </c>
+      <c r="O47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" t="s">
+        <v>168</v>
+      </c>
+      <c r="J48" t="s">
+        <v>94</v>
+      </c>
+      <c r="L48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M48" t="s">
+        <v>155</v>
+      </c>
+      <c r="N48" t="s">
+        <v>156</v>
+      </c>
+      <c r="O48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" t="s">
+        <v>170</v>
+      </c>
+      <c r="J49" t="s">
+        <v>94</v>
+      </c>
+      <c r="L49" t="s">
+        <v>78</v>
+      </c>
+      <c r="M49" t="s">
         <v>157</v>
       </c>
-      <c r="Q12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="T12" s="8" t="s">
+      <c r="N49" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R13" s="7" t="s">
+      <c r="O49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s">
+        <v>171</v>
+      </c>
+      <c r="I50" t="s">
+        <v>172</v>
+      </c>
+      <c r="J50" t="s">
+        <v>94</v>
+      </c>
+      <c r="L50" t="s">
+        <v>78</v>
+      </c>
+      <c r="M50" t="s">
         <v>159</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="N50" t="s">
         <v>160</v>
       </c>
-      <c r="T13" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="G14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="O50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
+        <v>173</v>
+      </c>
+      <c r="I51" t="s">
+        <v>174</v>
+      </c>
+      <c r="J51" t="s">
+        <v>94</v>
+      </c>
+      <c r="L51" t="s">
+        <v>78</v>
+      </c>
+      <c r="M51" t="s">
+        <v>161</v>
+      </c>
+      <c r="N51" t="s">
+        <v>162</v>
+      </c>
+      <c r="O51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s">
+        <v>175</v>
+      </c>
+      <c r="I52" t="s">
+        <v>176</v>
+      </c>
+      <c r="J52" t="s">
+        <v>94</v>
+      </c>
+      <c r="L52" t="s">
+        <v>78</v>
+      </c>
+      <c r="M52" t="s">
+        <v>163</v>
+      </c>
+      <c r="N52" t="s">
+        <v>164</v>
+      </c>
+      <c r="O52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s">
+        <v>177</v>
+      </c>
+      <c r="I53" t="s">
+        <v>178</v>
+      </c>
+      <c r="J53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L53" t="s">
+        <v>78</v>
+      </c>
+      <c r="M53" t="s">
+        <v>165</v>
+      </c>
+      <c r="N53" t="s">
+        <v>166</v>
+      </c>
+      <c r="O53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s">
+        <v>179</v>
+      </c>
+      <c r="I54" t="s">
+        <v>180</v>
+      </c>
+      <c r="J54" t="s">
+        <v>94</v>
+      </c>
+      <c r="L54" t="s">
+        <v>78</v>
+      </c>
+      <c r="M54" t="s">
+        <v>167</v>
+      </c>
+      <c r="N54" t="s">
+        <v>168</v>
+      </c>
+      <c r="O54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s">
+        <v>181</v>
+      </c>
+      <c r="I55" t="s">
+        <v>182</v>
+      </c>
+      <c r="J55" t="s">
+        <v>94</v>
+      </c>
+      <c r="L55" t="s">
+        <v>78</v>
+      </c>
+      <c r="M55" t="s">
+        <v>169</v>
+      </c>
+      <c r="N55" t="s">
+        <v>170</v>
+      </c>
+      <c r="O55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s">
+        <v>183</v>
+      </c>
+      <c r="I56" t="s">
+        <v>184</v>
+      </c>
+      <c r="J56" t="s">
+        <v>94</v>
+      </c>
+      <c r="L56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M56" t="s">
+        <v>171</v>
+      </c>
+      <c r="N56" t="s">
+        <v>172</v>
+      </c>
+      <c r="O56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s">
+        <v>185</v>
+      </c>
+      <c r="I57" t="s">
+        <v>186</v>
+      </c>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+      <c r="L57" t="s">
+        <v>78</v>
+      </c>
+      <c r="M57" t="s">
+        <v>173</v>
+      </c>
+      <c r="N57" t="s">
+        <v>174</v>
+      </c>
+      <c r="O57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58" t="s">
+        <v>188</v>
+      </c>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+      <c r="L58" t="s">
+        <v>78</v>
+      </c>
+      <c r="M58" t="s">
+        <v>175</v>
+      </c>
+      <c r="N58" t="s">
+        <v>176</v>
+      </c>
+      <c r="O58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s">
+        <v>189</v>
+      </c>
+      <c r="I59" t="s">
+        <v>190</v>
+      </c>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+      <c r="L59" t="s">
+        <v>78</v>
+      </c>
+      <c r="M59" t="s">
+        <v>177</v>
+      </c>
+      <c r="N59" t="s">
+        <v>178</v>
+      </c>
+      <c r="O59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s">
+        <v>191</v>
+      </c>
+      <c r="I60" t="s">
+        <v>192</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+      <c r="L60" t="s">
+        <v>78</v>
+      </c>
+      <c r="M60" t="s">
+        <v>179</v>
+      </c>
+      <c r="N60" t="s">
+        <v>180</v>
+      </c>
+      <c r="O60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G61" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" t="s">
+        <v>194</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+      <c r="L61" t="s">
+        <v>78</v>
+      </c>
+      <c r="M61" t="s">
+        <v>181</v>
+      </c>
+      <c r="N61" t="s">
+        <v>182</v>
+      </c>
+      <c r="O61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G62" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s">
+        <v>195</v>
+      </c>
+      <c r="I62" t="s">
+        <v>196</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+      <c r="L62" t="s">
+        <v>78</v>
+      </c>
+      <c r="M62" t="s">
+        <v>183</v>
+      </c>
+      <c r="N62" t="s">
+        <v>184</v>
+      </c>
+      <c r="O62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G63" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s">
+        <v>197</v>
+      </c>
+      <c r="I63" t="s">
+        <v>198</v>
+      </c>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+      <c r="L63" t="s">
+        <v>78</v>
+      </c>
+      <c r="M63" t="s">
+        <v>185</v>
+      </c>
+      <c r="N63" t="s">
+        <v>186</v>
+      </c>
+      <c r="O63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s">
+        <v>199</v>
+      </c>
+      <c r="I64" t="s">
+        <v>200</v>
+      </c>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+      <c r="L64" t="s">
+        <v>78</v>
+      </c>
+      <c r="M64" t="s">
+        <v>187</v>
+      </c>
+      <c r="N64" t="s">
+        <v>188</v>
+      </c>
+      <c r="O64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s">
+        <v>201</v>
+      </c>
+      <c r="I65" t="s">
+        <v>202</v>
+      </c>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+      <c r="L65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M65" t="s">
+        <v>189</v>
+      </c>
+      <c r="N65" t="s">
+        <v>190</v>
+      </c>
+      <c r="O65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s">
+        <v>203</v>
+      </c>
+      <c r="I66" t="s">
+        <v>204</v>
+      </c>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+      <c r="L66" t="s">
+        <v>78</v>
+      </c>
+      <c r="M66" t="s">
+        <v>191</v>
+      </c>
+      <c r="N66" t="s">
+        <v>192</v>
+      </c>
+      <c r="O66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G67" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s">
         <v>86</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="I67" t="s">
         <v>87</v>
       </c>
-      <c r="O14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="G15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="G16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G22" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="T22" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G24" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R26" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="T26" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G30" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R30" s="8" t="s">
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+      <c r="L67" t="s">
+        <v>78</v>
+      </c>
+      <c r="M67" t="s">
         <v>193</v>
       </c>
-      <c r="S30" s="8" t="s">
+      <c r="N67" t="s">
         <v>194</v>
       </c>
-      <c r="T30" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R31" s="7" t="s">
+      <c r="O67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68" t="s">
+        <v>206</v>
+      </c>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+      <c r="L68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M68" t="s">
         <v>195</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="N68" t="s">
         <v>196</v>
       </c>
-      <c r="T31" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G32" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R32" s="8" t="s">
+      <c r="O68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="L69" t="s">
+        <v>78</v>
+      </c>
+      <c r="M69" t="s">
         <v>197</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="N69" t="s">
         <v>198</v>
       </c>
-      <c r="T32" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R33" s="7" t="s">
+      <c r="O69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="L70" t="s">
+        <v>78</v>
+      </c>
+      <c r="M70" t="s">
         <v>199</v>
       </c>
-      <c r="S33" s="7" t="s">
+      <c r="N70" t="s">
         <v>200</v>
       </c>
-      <c r="T33" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R34" s="8" t="s">
+      <c r="O70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="L71" t="s">
+        <v>78</v>
+      </c>
+      <c r="M71" t="s">
         <v>201</v>
       </c>
-      <c r="S34" s="8" t="s">
+      <c r="N71" t="s">
         <v>202</v>
       </c>
-      <c r="T34" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R35" s="7" t="s">
+      <c r="O71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="L72" t="s">
+        <v>78</v>
+      </c>
+      <c r="M72" t="s">
         <v>203</v>
       </c>
-      <c r="S35" s="7" t="s">
+      <c r="N72" t="s">
         <v>204</v>
       </c>
-      <c r="T35" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G36" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="T36" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R37" s="7" t="s">
+      <c r="O72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="L73" t="s">
+        <v>78</v>
+      </c>
+      <c r="M73" t="s">
         <v>205</v>
       </c>
-      <c r="S37" s="7" t="s">
+      <c r="N73" t="s">
         <v>206</v>
       </c>
-      <c r="T37" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G38" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R38" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="S38" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="T38" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G39" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="T39" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G40" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G41" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G42" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G43" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G45" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="L46" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="L47" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="L48" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>157</v>
+      <c r="O73" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3242,10 +3871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C4:X49"/>
+  <dimension ref="C4:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3380,7 +4009,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1">
         <v>8.76</v>
@@ -3940,7 +4569,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
         <v>24</v>
@@ -3951,7 +4580,7 @@
         <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
         <v>24</v>
@@ -3959,60 +4588,71 @@
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C46" t="s">
-        <v>4</v>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
         <v>66</v>
       </c>
-      <c r="D48">
-        <v>2025</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49">
+        <v>2025</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s">
         <v>71</v>
-      </c>
-      <c r="D49">
-        <v>40</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E06D31-1876-4101-BC55-A3ACF5923159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E558D0-3A39-4123-99E6-F3D5AEB5CC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E558D0-3A39-4123-99E6-F3D5AEB5CC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F56DF19-1DF7-4395-9E93-738CBB378288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
